--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F908"/>
+  <dimension ref="A1:F929"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20338,17 +20338,17 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>Campania</t>
+          <t>Abruzzo</t>
         </is>
       </c>
       <c r="B905" t="n">
-        <v>1.28</v>
+        <v>0.89</v>
       </c>
       <c r="C905" t="n">
-        <v>0.9</v>
+        <v>0.79</v>
       </c>
       <c r="D905" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="E905" s="2" t="n">
         <v>44258</v>
@@ -20360,17 +20360,17 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Lombardia</t>
+          <t>Basilicata</t>
         </is>
       </c>
       <c r="B906" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="C906" t="n">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
       <c r="D906" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="E906" s="2" t="n">
         <v>44258</v>
@@ -20382,17 +20382,17 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>Piemonte</t>
+          <t>Bolzano</t>
         </is>
       </c>
       <c r="B907" t="n">
-        <v>1.16</v>
+        <v>0.74</v>
       </c>
       <c r="C907" t="n">
-        <v>0.83</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D907" t="n">
-        <v>1.39</v>
+        <v>0.88</v>
       </c>
       <c r="E907" s="2" t="n">
         <v>44258</v>
@@ -20404,23 +20404,485 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Calabria</t>
         </is>
       </c>
       <c r="B908" t="n">
-        <v>1.09</v>
+        <v>1.37</v>
       </c>
       <c r="C908" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="D908" t="n">
-        <v>1.13</v>
+        <v>1.59</v>
       </c>
       <c r="E908" s="2" t="n">
         <v>44258</v>
       </c>
       <c r="F908" s="2" t="n">
         <v>44271</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B909" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C909" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D909" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E909" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="F909" s="2" t="n">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B910" t="n">
+        <v>1</v>
+      </c>
+      <c r="C910" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D910" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E910" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="F910" s="2" t="n">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B911" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="C911" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D911" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E911" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="F911" s="2" t="n">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B912" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C912" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D912" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E912" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="F912" s="2" t="n">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B913" t="n">
+        <v>1</v>
+      </c>
+      <c r="C913" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D913" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E913" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="F913" s="2" t="n">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B914" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C914" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D914" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E914" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="F914" s="2" t="n">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B915" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C915" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D915" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E915" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="F915" s="2" t="n">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B916" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C916" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D916" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E916" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="F916" s="2" t="n">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B917" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C917" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D917" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E917" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="F917" s="2" t="n">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B918" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C918" t="n">
+        <v>1</v>
+      </c>
+      <c r="D918" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E918" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="F918" s="2" t="n">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B919" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C919" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D919" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E919" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="F919" s="2" t="n">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B920" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C920" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D920" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E920" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="F920" s="2" t="n">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B921" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C921" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D921" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E921" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="F921" s="2" t="n">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B922" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C922" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D922" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E922" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="F922" s="2" t="n">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B923" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C923" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D923" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E923" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="F923" s="2" t="n">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B924" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="C924" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D924" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E924" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="F924" s="2" t="n">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B925" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C925" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D925" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E925" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="F925" s="2" t="n">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B926" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C926" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D926" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E926" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F926" s="2" t="n">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B927" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C927" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D927" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E927" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F927" s="2" t="n">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B928" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C928" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D928" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E928" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F928" s="2" t="n">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B929" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C929" t="n">
+        <v>1</v>
+      </c>
+      <c r="D929" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E929" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F929" s="2" t="n">
+        <v>44278</v>
       </c>
     </row>
   </sheetData>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F929"/>
+  <dimension ref="A1:F946"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20800,17 +20800,17 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Campania</t>
+          <t>Abruzzo</t>
         </is>
       </c>
       <c r="B926" t="n">
-        <v>1.22</v>
+        <v>0.83</v>
       </c>
       <c r="C926" t="n">
-        <v>0.96</v>
+        <v>0.72</v>
       </c>
       <c r="D926" t="n">
-        <v>1.46</v>
+        <v>0.93</v>
       </c>
       <c r="E926" s="2" t="n">
         <v>44265</v>
@@ -20822,17 +20822,17 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>Lombardia</t>
+          <t>Basilicata</t>
         </is>
       </c>
       <c r="B927" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="C927" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D927" t="n">
-        <v>1.13</v>
+        <v>1.52</v>
       </c>
       <c r="E927" s="2" t="n">
         <v>44265</v>
@@ -20844,17 +20844,17 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Piemonte</t>
+          <t>Bolzano</t>
         </is>
       </c>
       <c r="B928" t="n">
-        <v>0.98</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C928" t="n">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D928" t="n">
-        <v>1.22</v>
+        <v>1.02</v>
       </c>
       <c r="E928" s="2" t="n">
         <v>44265</v>
@@ -20866,22 +20866,396 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Calabria</t>
         </is>
       </c>
       <c r="B929" t="n">
-        <v>1.06</v>
+        <v>1.29</v>
       </c>
       <c r="C929" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="D929" t="n">
-        <v>1.11</v>
+        <v>1.71</v>
       </c>
       <c r="E929" s="2" t="n">
         <v>44265</v>
       </c>
       <c r="F929" s="2" t="n">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B930" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C930" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D930" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E930" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F930" s="2" t="n">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B931" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C931" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D931" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E931" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F931" s="2" t="n">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B932" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C932" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D932" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E932" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F932" s="2" t="n">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B933" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C933" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D933" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E933" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F933" s="2" t="n">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B934" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C934" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D934" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E934" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F934" s="2" t="n">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B935" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C935" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D935" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E935" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F935" s="2" t="n">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B936" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C936" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D936" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E936" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F936" s="2" t="n">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B937" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C937" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D937" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E937" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F937" s="2" t="n">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B938" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C938" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D938" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E938" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F938" s="2" t="n">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B939" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C939" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D939" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E939" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F939" s="2" t="n">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B940" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C940" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D940" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E940" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F940" s="2" t="n">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B941" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C941" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D941" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E941" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F941" s="2" t="n">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B942" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C942" t="n">
+        <v>1</v>
+      </c>
+      <c r="D942" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E942" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F942" s="2" t="n">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B943" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C943" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D943" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E943" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F943" s="2" t="n">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B944" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C944" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D944" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E944" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F944" s="2" t="n">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B945" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="C945" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D945" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E945" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F945" s="2" t="n">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B946" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C946" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D946" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E946" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F946" s="2" t="n">
         <v>44278</v>
       </c>
     </row>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F946"/>
+  <dimension ref="A1:F967"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21259,6 +21259,468 @@
         <v>44278</v>
       </c>
     </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B947" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C947" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D947" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E947" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F947" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B948" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C948" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D948" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E948" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F948" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B949" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C949" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D949" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E949" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F949" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B950" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C950" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D950" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E950" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F950" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>Emilia Romagna</t>
+        </is>
+      </c>
+      <c r="B951" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C951" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D951" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E951" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F951" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>Friuli Venezia Giulia</t>
+        </is>
+      </c>
+      <c r="B952" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C952" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D952" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E952" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F952" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B953" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C953" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D953" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E953" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F953" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B954" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C954" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D954" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E954" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F954" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B955" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C955" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D955" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E955" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F955" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B956" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C956" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D956" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E956" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F956" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B957" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C957" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D957" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E957" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F957" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>PA Bolzano</t>
+        </is>
+      </c>
+      <c r="B958" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C958" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D958" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E958" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F958" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>PA Trento</t>
+        </is>
+      </c>
+      <c r="B959" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C959" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D959" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E959" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F959" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B960" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C960" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D960" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E960" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F960" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B961" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C961" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D961" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E961" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F961" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B962" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="C962" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D962" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E962" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F962" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B963" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C963" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D963" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E963" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F963" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B964" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C964" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D964" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E964" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F964" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B965" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C965" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D965" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E965" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F965" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B966" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C966" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D966" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E966" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F966" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B967" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C967" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D967" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E967" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="F967" s="2" t="n">
+        <v>44285</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F967"/>
+  <dimension ref="A1:F988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21306,17 +21306,17 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Calabria</t>
+          <t>Bolzano</t>
         </is>
       </c>
       <c r="B949" t="n">
-        <v>1.01</v>
+        <v>0.85</v>
       </c>
       <c r="C949" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="D949" t="n">
-        <v>1.44</v>
+        <v>1.03</v>
       </c>
       <c r="E949" s="2" t="n">
         <v>44272</v>
@@ -21328,17 +21328,17 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>Campania</t>
+          <t>Calabria</t>
         </is>
       </c>
       <c r="B950" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="C950" t="n">
-        <v>0.98</v>
+        <v>0.68</v>
       </c>
       <c r="D950" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="E950" s="2" t="n">
         <v>44272</v>
@@ -21350,17 +21350,17 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Emilia Romagna</t>
+          <t>Campania</t>
         </is>
       </c>
       <c r="B951" t="n">
-        <v>0.82</v>
+        <v>1.22</v>
       </c>
       <c r="C951" t="n">
-        <v>0.78</v>
+        <v>0.98</v>
       </c>
       <c r="D951" t="n">
-        <v>0.85</v>
+        <v>1.47</v>
       </c>
       <c r="E951" s="2" t="n">
         <v>44272</v>
@@ -21372,17 +21372,17 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>Friuli Venezia Giulia</t>
+          <t>Emilia Romagna</t>
         </is>
       </c>
       <c r="B952" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="C952" t="n">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="D952" t="n">
-        <v>1.03</v>
+        <v>0.85</v>
       </c>
       <c r="E952" s="2" t="n">
         <v>44272</v>
@@ -21394,17 +21394,17 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Friuli Venezia Giulia</t>
         </is>
       </c>
       <c r="B953" t="n">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="C953" t="n">
-        <v>0.76</v>
+        <v>0.67</v>
       </c>
       <c r="D953" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="E953" s="2" t="n">
         <v>44272</v>
@@ -21416,17 +21416,17 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Liguria</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="B954" t="n">
-        <v>1.11</v>
+        <v>0.9</v>
       </c>
       <c r="C954" t="n">
-        <v>0.91</v>
+        <v>0.76</v>
       </c>
       <c r="D954" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="E954" s="2" t="n">
         <v>44272</v>
@@ -21438,17 +21438,17 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>Lombardia</t>
+          <t>Liguria</t>
         </is>
       </c>
       <c r="B955" t="n">
-        <v>0.84</v>
+        <v>1.11</v>
       </c>
       <c r="C955" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="D955" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="E955" s="2" t="n">
         <v>44272</v>
@@ -21460,17 +21460,17 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Marche</t>
+          <t>Lombardia</t>
         </is>
       </c>
       <c r="B956" t="n">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="C956" t="n">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="D956" t="n">
-        <v>1.12</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E956" s="2" t="n">
         <v>44272</v>
@@ -21482,17 +21482,17 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>Molise</t>
+          <t>Marche</t>
         </is>
       </c>
       <c r="B957" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="C957" t="n">
-        <v>0.51</v>
+        <v>0.77</v>
       </c>
       <c r="D957" t="n">
-        <v>1.39</v>
+        <v>1.12</v>
       </c>
       <c r="E957" s="2" t="n">
         <v>44272</v>
@@ -21504,17 +21504,17 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>PA Bolzano</t>
+          <t>Molise</t>
         </is>
       </c>
       <c r="B958" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="C958" t="n">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="D958" t="n">
-        <v>1.03</v>
+        <v>1.39</v>
       </c>
       <c r="E958" s="2" t="n">
         <v>44272</v>
@@ -21526,17 +21526,17 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>PA Trento</t>
+          <t>Piemonte</t>
         </is>
       </c>
       <c r="B959" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="C959" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="D959" t="n">
-        <v>0.96</v>
+        <v>1.01</v>
       </c>
       <c r="E959" s="2" t="n">
         <v>44272</v>
@@ -21548,17 +21548,17 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>Piemonte</t>
+          <t>Puglia</t>
         </is>
       </c>
       <c r="B960" t="n">
-        <v>0.88</v>
+        <v>1.04</v>
       </c>
       <c r="C960" t="n">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="D960" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="E960" s="2" t="n">
         <v>44272</v>
@@ -21570,17 +21570,17 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Puglia</t>
+          <t>Sardegna</t>
         </is>
       </c>
       <c r="B961" t="n">
-        <v>1.04</v>
+        <v>1.42</v>
       </c>
       <c r="C961" t="n">
-        <v>0.84</v>
+        <v>1.1</v>
       </c>
       <c r="D961" t="n">
-        <v>1.18</v>
+        <v>1.68</v>
       </c>
       <c r="E961" s="2" t="n">
         <v>44272</v>
@@ -21592,17 +21592,17 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>Sardegna</t>
+          <t>Sicilia</t>
         </is>
       </c>
       <c r="B962" t="n">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="C962" t="n">
-        <v>1.1</v>
+        <v>0.91</v>
       </c>
       <c r="D962" t="n">
-        <v>1.68</v>
+        <v>1.32</v>
       </c>
       <c r="E962" s="2" t="n">
         <v>44272</v>
@@ -21614,17 +21614,17 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Sicilia</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="B963" t="n">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="C963" t="n">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="D963" t="n">
-        <v>1.32</v>
+        <v>1.09</v>
       </c>
       <c r="E963" s="2" t="n">
         <v>44272</v>
@@ -21636,17 +21636,17 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Trento</t>
         </is>
       </c>
       <c r="B964" t="n">
-        <v>1.03</v>
+        <v>0.85</v>
       </c>
       <c r="C964" t="n">
-        <v>0.99</v>
+        <v>0.64</v>
       </c>
       <c r="D964" t="n">
-        <v>1.09</v>
+        <v>0.96</v>
       </c>
       <c r="E964" s="2" t="n">
         <v>44272</v>
@@ -21719,6 +21719,468 @@
       </c>
       <c r="F967" s="2" t="n">
         <v>44285</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B968" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C968" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D968" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E968" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F968" s="2" t="n">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B969" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C969" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D969" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E969" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F969" s="2" t="n">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B970" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C970" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D970" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E970" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F970" s="2" t="n">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B971" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C971" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D971" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E971" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F971" s="2" t="n">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B972" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C972" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D972" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E972" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F972" s="2" t="n">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>Emilia Romagna</t>
+        </is>
+      </c>
+      <c r="B973" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C973" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D973" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E973" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F973" s="2" t="n">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>Friuli Venezia Giulia</t>
+        </is>
+      </c>
+      <c r="B974" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C974" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D974" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E974" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F974" s="2" t="n">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B975" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C975" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D975" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E975" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F975" s="2" t="n">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B976" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C976" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D976" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E976" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F976" s="2" t="n">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B977" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C977" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D977" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E977" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F977" s="2" t="n">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B978" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C978" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D978" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E978" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F978" s="2" t="n">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B979" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C979" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D979" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E979" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F979" s="2" t="n">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B980" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C980" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D980" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E980" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F980" s="2" t="n">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B981" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C981" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D981" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E981" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F981" s="2" t="n">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B982" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="C982" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D982" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E982" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F982" s="2" t="n">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B983" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C983" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D983" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E983" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F983" s="2" t="n">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B984" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C984" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D984" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E984" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F984" s="2" t="n">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B985" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C985" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D985" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E985" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F985" s="2" t="n">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B986" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C986" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D986" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E986" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F986" s="2" t="n">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B987" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="C987" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D987" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E987" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F987" s="2" t="n">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B988" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C988" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D988" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E988" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="F988" s="2" t="n">
+        <v>44292</v>
       </c>
     </row>
   </sheetData>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F988"/>
+  <dimension ref="A1:F1009"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21372,7 +21372,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>Emilia Romagna</t>
+          <t>Emilia R.</t>
         </is>
       </c>
       <c r="B952" t="n">
@@ -21834,7 +21834,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Emilia Romagna</t>
+          <t>Emilia R.</t>
         </is>
       </c>
       <c r="B973" t="n">
@@ -22181,6 +22181,468 @@
       </c>
       <c r="F988" s="2" t="n">
         <v>44292</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B989" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C989" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D989" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E989" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F989" s="2" t="n">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B990" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C990" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D990" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E990" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F990" s="2" t="n">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B991" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C991" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D991" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E991" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F991" s="2" t="n">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B992" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C992" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D992" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E992" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F992" s="2" t="n">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B993" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C993" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D993" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E993" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F993" s="2" t="n">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B994" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C994" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D994" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E994" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F994" s="2" t="n">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>Friuli Venezia Giulia</t>
+        </is>
+      </c>
+      <c r="B995" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C995" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D995" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E995" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F995" s="2" t="n">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B996" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C996" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D996" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E996" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F996" s="2" t="n">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B997" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C997" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D997" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E997" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F997" s="2" t="n">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B998" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C998" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D998" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E998" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F998" s="2" t="n">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B999" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C999" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D999" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E999" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F999" s="2" t="n">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1000" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E1000" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F1000" s="2" t="n">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1001" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E1001" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F1001" s="2" t="n">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1002" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E1002" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F1002" s="2" t="n">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1003" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E1003" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F1003" s="2" t="n">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1004" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E1004" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F1004" s="2" t="n">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1005" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E1005" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F1005" s="2" t="n">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1006" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1006" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F1006" s="2" t="n">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1007" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E1007" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F1007" s="2" t="n">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1008" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E1008" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F1008" s="2" t="n">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1009" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E1009" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="F1009" s="2" t="n">
+        <v>44299</v>
       </c>
     </row>
   </sheetData>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1009"/>
+  <dimension ref="A1:F1030"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22645,6 +22645,468 @@
         <v>44299</v>
       </c>
     </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1010" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E1010" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1010" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1011" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E1011" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1011" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1012" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E1012" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1012" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1013" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E1013" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1013" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1014" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E1014" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1014" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1015" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E1015" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1015" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>Friuli Venezia Giulia</t>
+        </is>
+      </c>
+      <c r="B1016" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E1016" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1016" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1017" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E1017" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1017" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1018" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E1018" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1018" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1019" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E1019" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1019" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1020" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E1020" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1020" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1021" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E1021" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1021" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1022" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E1022" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1022" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1023" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E1023" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1023" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1024" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E1024" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1024" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1025" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E1025" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1025" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1026" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E1026" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1026" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1027" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E1027" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1027" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1028" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E1028" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1028" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1029" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E1029" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1029" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1030" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E1030" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="F1030" s="2" t="n">
+        <v>44306</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1030"/>
+  <dimension ref="A1:F1051"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23107,6 +23107,468 @@
         <v>44306</v>
       </c>
     </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1031" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E1031" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1031" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1032" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E1032" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1032" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1033" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E1033" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1033" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1034" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E1034" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1034" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1035" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E1035" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1035" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1036" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E1036" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1036" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>Friuli Venezia Giulia</t>
+        </is>
+      </c>
+      <c r="B1037" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E1037" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1037" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1038" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E1038" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1038" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1039" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E1039" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1039" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1040" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E1040" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1040" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1041" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E1041" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1041" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1042" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E1042" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1042" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1043" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E1043" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1043" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1044" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E1044" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1044" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1045" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E1045" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1045" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1046" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E1046" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1046" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1047" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E1047" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1047" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1048" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E1048" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1048" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1049" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E1049" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1049" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1050" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E1050" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1050" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1051" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E1051" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F1051" s="2" t="n">
+        <v>44313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1051"/>
+  <dimension ref="A1:F1072"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23569,6 +23569,468 @@
         <v>44313</v>
       </c>
     </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1052" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E1052" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1052" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1053" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E1053" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1053" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1054" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E1054" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1054" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1055" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E1055" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1055" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1056" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E1056" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1056" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1057" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E1057" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1057" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>Friuli Venezia Giulia</t>
+        </is>
+      </c>
+      <c r="B1058" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E1058" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1058" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1059" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E1059" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1059" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1060" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E1060" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1060" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1061" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E1061" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1061" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1062" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E1062" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1062" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1063" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E1063" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1063" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1064" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E1064" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1064" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1065" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E1065" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1065" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1066" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E1066" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1066" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1067" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E1067" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1067" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1068" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E1068" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1068" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1069" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E1069" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1069" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1070" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E1070" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1070" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1071" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E1071" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1071" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1072" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E1072" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="F1072" s="2" t="n">
+        <v>44320</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1072"/>
+  <dimension ref="A1:F1093"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21394,7 +21394,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Friuli Venezia Giulia</t>
+          <t>Friuli V.G.</t>
         </is>
       </c>
       <c r="B953" t="n">
@@ -21856,7 +21856,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Friuli Venezia Giulia</t>
+          <t>Friuli V.G.</t>
         </is>
       </c>
       <c r="B974" t="n">
@@ -22318,7 +22318,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>Friuli Venezia Giulia</t>
+          <t>Friuli V.G.</t>
         </is>
       </c>
       <c r="B995" t="n">
@@ -22780,7 +22780,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Friuli Venezia Giulia</t>
+          <t>Friuli V.G.</t>
         </is>
       </c>
       <c r="B1016" t="n">
@@ -23242,7 +23242,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>Friuli Venezia Giulia</t>
+          <t>Friuli V.G.</t>
         </is>
       </c>
       <c r="B1037" t="n">
@@ -23704,7 +23704,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Friuli Venezia Giulia</t>
+          <t>Friuli V.G.</t>
         </is>
       </c>
       <c r="B1058" t="n">
@@ -24029,6 +24029,468 @@
       </c>
       <c r="F1072" s="2" t="n">
         <v>44320</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1073" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E1073" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1073" s="2" t="n">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1074" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E1074" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1074" s="2" t="n">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1075" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E1075" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1075" s="2" t="n">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1076" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E1076" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1076" s="2" t="n">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1077" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1077" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1077" s="2" t="n">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1078" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E1078" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1078" s="2" t="n">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1079" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E1079" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1079" s="2" t="n">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1080" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E1080" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1080" s="2" t="n">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1081" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1081" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1081" s="2" t="n">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1082" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E1082" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1082" s="2" t="n">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1083" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E1083" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1083" s="2" t="n">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1084" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E1084" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1084" s="2" t="n">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1085" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E1085" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1085" s="2" t="n">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1086" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E1086" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1086" s="2" t="n">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1087" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E1087" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1087" s="2" t="n">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1088" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E1088" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1088" s="2" t="n">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1089" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E1089" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1089" s="2" t="n">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1090" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E1090" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1090" s="2" t="n">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1091" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E1091" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1091" s="2" t="n">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1092" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E1092" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1092" s="2" t="n">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1093" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E1093" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F1093" s="2" t="n">
+        <v>44327</v>
       </c>
     </row>
   </sheetData>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1093"/>
+  <dimension ref="A1:F1114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24493,6 +24493,468 @@
         <v>44327</v>
       </c>
     </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1094" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E1094" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1094" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1095" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E1095" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1095" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1096" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E1096" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1096" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1097" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E1097" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1097" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1098" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E1098" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1098" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1099" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E1099" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1099" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1100" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E1100" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1100" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1101" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E1101" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1101" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1102" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E1102" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1102" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1103" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E1103" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1103" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1104" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E1104" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1104" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1105" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E1105" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1105" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1106" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E1106" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1106" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1107" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E1107" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1107" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1108" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E1108" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1108" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1109" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E1109" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1109" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1110" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E1110" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1110" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1111" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E1111" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1111" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1112" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E1112" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1112" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1113" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E1113" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1113" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1114" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E1114" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="F1114" s="2" t="n">
+        <v>44334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1114"/>
+  <dimension ref="A1:F1135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24955,6 +24955,468 @@
         <v>44334</v>
       </c>
     </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1115" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E1115" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1115" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1116" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E1116" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1116" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1117" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E1117" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1117" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1118" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E1118" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1118" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1119" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E1119" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1119" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1120" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E1120" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1120" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1121" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E1121" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1121" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1122" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E1122" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1122" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1123" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E1123" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1123" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1124" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E1124" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1124" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1125" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1125" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1125" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1126" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E1126" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1126" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1127" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E1127" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1127" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1128" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E1128" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1128" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1129" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E1129" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1129" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1130" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E1130" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1130" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1131" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E1131" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1131" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1132" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E1132" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1132" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1133" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E1133" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1133" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1134" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E1134" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1134" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1135" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E1135" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F1135" s="2" t="n">
+        <v>44340</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1135"/>
+  <dimension ref="A1:F1156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25417,6 +25417,468 @@
         <v>44340</v>
       </c>
     </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1136" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E1136" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1136" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1137" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E1137" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1137" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1138" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E1138" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1138" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1139" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E1139" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1139" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1140" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E1140" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1140" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1141" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E1141" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1141" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1142" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E1142" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1142" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1143" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E1143" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1143" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1144" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E1144" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1144" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1145" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E1145" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1145" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1146" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E1146" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1146" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1147" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E1147" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1147" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1148" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E1148" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1148" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1149" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E1149" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1149" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1150" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E1150" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1150" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1151" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E1151" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1151" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1152" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E1152" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1152" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1153" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E1153" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1153" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1154" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E1154" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1154" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1155" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E1155" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1155" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1156" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E1156" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="F1156" s="2" t="n">
+        <v>44348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1156"/>
+  <dimension ref="A1:F1177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25879,6 +25879,468 @@
         <v>44348</v>
       </c>
     </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1157" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E1157" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1157" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1158" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E1158" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1158" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1159" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E1159" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1159" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1160" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1160" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1160" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1161" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E1161" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1161" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1162" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E1162" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1162" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1163" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E1163" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1163" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1164" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E1164" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1164" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1165" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E1165" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1165" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1166" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E1166" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1166" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1167" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1167" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1167" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1168" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E1168" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1168" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1169" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E1169" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1169" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1170" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E1170" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1170" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1171" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E1171" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1171" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1172" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E1172" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1172" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1173" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E1173" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1173" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1174" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E1174" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1174" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1175" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E1175" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1175" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1176" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E1176" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1176" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1177" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E1177" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="F1177" s="2" t="n">
+        <v>44355</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1177"/>
+  <dimension ref="A1:F1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26341,6 +26341,468 @@
         <v>44355</v>
       </c>
     </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1178" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E1178" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1178" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1179" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E1179" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1179" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1180" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1180" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1180" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1181" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E1181" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1181" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1182" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E1182" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1182" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1183" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E1183" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1183" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1184" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E1184" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1184" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1185" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E1185" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1185" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1186" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E1186" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1186" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1187" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E1187" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1187" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1188" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E1188" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1188" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1189" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E1189" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1189" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1190" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E1190" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1190" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1191" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E1191" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1191" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1192" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E1192" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1192" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1193" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E1193" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1193" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1194" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E1194" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1194" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1195" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C1195" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D1195" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E1195" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1195" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1196" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1196" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D1196" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E1196" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1196" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1197" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C1197" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D1197" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E1197" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1197" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1198" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C1198" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1198" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E1198" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F1198" s="2" t="n">
+        <v>44362</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1198"/>
+  <dimension ref="A1:F1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26803,6 +26803,468 @@
         <v>44362</v>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1199" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C1199" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E1199" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1199" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1200" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E1200" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1200" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1201" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E1201" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1201" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1202" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E1202" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1202" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1203" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E1203" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1203" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1204" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E1204" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1204" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1205" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E1205" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1205" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1206" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E1206" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1206" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1207" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E1207" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1207" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1208" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E1208" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1208" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1209" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E1209" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1209" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1210" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E1210" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1210" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1211" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E1211" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1211" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1212" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E1212" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1212" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1213" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E1213" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1213" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1214" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E1214" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1214" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1215" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E1215" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1215" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1216" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E1216" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1216" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1217" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E1217" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1217" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1218" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E1218" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1218" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1219" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E1219" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="F1219" s="2" t="n">
+        <v>44369</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1219"/>
+  <dimension ref="A1:F1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27265,6 +27265,468 @@
         <v>44369</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1220" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E1220" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1220" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1221" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E1221" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1221" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1222" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E1222" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1222" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1223" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E1223" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1223" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1224" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E1224" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1224" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1225" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E1225" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1225" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1226" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E1226" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1226" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1227" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E1227" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1227" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1228" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E1228" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1228" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1229" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E1229" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1229" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1230" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E1230" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1230" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1231" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E1231" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1231" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1232" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E1232" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1232" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1233" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E1233" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1233" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1234" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E1234" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1234" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1235" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E1235" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1235" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1236" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1236" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1236" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1237" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E1237" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1237" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1238" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E1238" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1238" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1239" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E1239" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1239" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1240" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E1240" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="F1240" s="2" t="n">
+        <v>44376</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1240"/>
+  <dimension ref="A1:F1282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27727,6 +27727,930 @@
         <v>44376</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1241" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E1241" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1241" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1242" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E1242" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1242" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1243" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E1243" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1243" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1244" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E1244" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1244" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1245" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E1245" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1245" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1246" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E1246" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1246" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1247" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E1247" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1247" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1248" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E1248" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1248" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1249" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E1249" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1249" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1250" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E1250" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1250" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1251" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E1251" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1251" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1252" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E1252" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1252" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1253" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E1253" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1253" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1254" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E1254" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1254" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1255" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C1255" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D1255" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="E1255" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1255" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1256" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D1256" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E1256" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1256" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1257" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D1257" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E1257" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1257" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1258" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C1258" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D1258" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E1258" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1258" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1259" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1259" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1259" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E1259" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1259" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1260" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C1260" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D1260" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E1260" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1260" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1261" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E1261" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F1261" s="2" t="n">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1262" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="E1262" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1262" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1263" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E1263" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1263" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1264" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E1264" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1264" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1265" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E1265" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1265" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1266" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E1266" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1266" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1267" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E1267" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1267" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1268" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E1268" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1268" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1269" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E1269" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1269" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1270" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E1270" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1270" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1271" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E1271" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1271" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1272" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E1272" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1272" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1273" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E1273" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1273" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1274" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E1274" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1274" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1275" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E1275" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1275" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1276" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E1276" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1276" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1277" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E1277" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1277" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1278" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E1278" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1278" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1279" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E1279" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1279" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1280" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E1280" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1280" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1281" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E1281" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1281" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1282" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="E1282" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="F1282" s="2" t="n">
+        <v>44390</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1282"/>
+  <dimension ref="A1:F1303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28651,6 +28651,468 @@
         <v>44390</v>
       </c>
     </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1283" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E1283" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1283" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1284" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E1284" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1284" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1285" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E1285" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1285" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1286" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E1286" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1286" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1287" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E1287" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1287" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1288" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E1288" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1288" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1289" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E1289" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1289" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1290" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E1290" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1290" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1291" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="E1291" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1291" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1292" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E1292" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1292" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1293" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E1293" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1293" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1294" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E1294" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1294" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1295" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E1295" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1295" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1296" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E1296" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1296" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1297" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="E1297" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1297" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1298" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E1298" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1298" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1299" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E1299" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1299" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1300" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E1300" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1300" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1301" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E1301" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1301" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1302" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="E1302" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1302" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1303" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E1303" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F1303" s="2" t="n">
+        <v>44397</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1303"/>
+  <dimension ref="A1:F1324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29113,6 +29113,468 @@
         <v>44397</v>
       </c>
     </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1304" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E1304" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1304" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1305" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="E1305" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1305" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1306" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E1306" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1306" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1307" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E1307" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1307" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1308" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E1308" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1308" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1309" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="E1309" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1309" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1310" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E1310" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1310" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1311" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E1311" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1311" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1312" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="E1312" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1312" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1313" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E1313" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1313" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1314" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E1314" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1314" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1315" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E1315" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1315" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1316" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E1316" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1316" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1317" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E1317" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1317" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1318" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="E1318" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1318" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1319" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E1319" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1319" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1320" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E1320" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1320" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1321" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E1321" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1321" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1322" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E1322" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1322" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1323" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E1323" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1323" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1324" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E1324" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="F1324" s="2" t="n">
+        <v>44404</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1324"/>
+  <dimension ref="A1:F1387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29575,6 +29575,1392 @@
         <v>44404</v>
       </c>
     </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1325" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E1325" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1325" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1326" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="E1326" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1326" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1327" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E1327" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1327" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1328" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E1328" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1328" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1329" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E1329" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1329" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1330" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E1330" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1330" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1331" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E1331" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1331" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1332" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E1332" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1332" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1333" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E1333" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1333" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1334" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E1334" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1334" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1335" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E1335" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1335" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1336" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E1336" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1336" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1337" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E1337" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1337" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1338" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E1338" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1338" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1339" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E1339" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1339" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1340" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E1340" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1340" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1341" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E1341" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1341" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1342" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E1342" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1342" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1343" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E1343" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1343" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1344" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E1344" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1344" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1345" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E1345" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="F1345" s="2" t="n">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1346" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E1346" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1346" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1347" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="E1347" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1347" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1348" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E1348" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1348" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1349" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E1349" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1349" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1350" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E1350" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1350" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1351" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E1351" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1351" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1352" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="E1352" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1352" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1353" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E1353" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1353" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1354" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E1354" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1354" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1355" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E1355" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1355" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1356" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="E1356" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1356" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1357" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E1357" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1357" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1358" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E1358" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1358" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1359" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E1359" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1359" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1360" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E1360" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1360" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1361" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E1361" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1361" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1362" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E1362" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1362" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1363" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E1363" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1363" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1364" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E1364" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1364" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1365" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="E1365" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1365" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1366" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E1366" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F1366" s="2" t="n">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1367" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E1367" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1367" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1368" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E1368" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1368" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1369" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E1369" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1369" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1370" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E1370" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1370" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1371" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E1371" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1371" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1372" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E1372" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1372" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1373" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E1373" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1373" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1374" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1374" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1374" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1375" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E1375" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1375" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1376" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E1376" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1376" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1377" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1377" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1377" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1378" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E1378" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1378" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1379" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E1379" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1379" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1380" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E1380" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1380" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1381" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E1381" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1381" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1382" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E1382" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1382" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1383" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E1383" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1383" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1384" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E1384" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1384" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1385" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E1385" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1385" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1386" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E1386" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1386" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1387" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E1387" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F1387" s="2" t="n">
+        <v>44425</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1387"/>
+  <dimension ref="A1:F1408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30961,6 +30961,468 @@
         <v>44425</v>
       </c>
     </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1388" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E1388" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1388" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1389" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="E1389" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1389" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1390" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E1390" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1390" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1391" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E1391" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1391" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1392" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E1392" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1392" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1393" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E1393" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1393" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1394" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E1394" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1394" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1395" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E1395" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1395" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1396" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E1396" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1396" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1397" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E1397" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1397" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1398" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D1398" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E1398" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1398" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1399" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E1399" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1399" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1400" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E1400" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1400" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1401" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E1401" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1401" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1402" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E1402" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1402" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1403" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E1403" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1403" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1404" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E1404" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1404" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1405" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E1405" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1405" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1406" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E1406" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1406" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1407" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E1407" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1407" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1408" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E1408" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F1408" s="2" t="n">
+        <v>44432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1408"/>
+  <dimension ref="A1:F1429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31423,6 +31423,468 @@
         <v>44432</v>
       </c>
     </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1409" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E1409" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1409" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1410" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E1410" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1410" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1411" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E1411" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1411" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1412" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E1412" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1412" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1413" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E1413" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1413" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1414" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E1414" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1414" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1415" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E1415" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1415" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1416" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E1416" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1416" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1417" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1417" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E1417" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1417" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1418" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D1418" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E1418" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1418" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1419" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1419" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E1419" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1419" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1420" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D1420" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E1420" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1420" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1421" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D1421" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E1421" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1421" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1422" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1422" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E1422" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1422" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1423" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D1423" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E1423" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1423" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1424" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E1424" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1424" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1425" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E1425" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1425" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1426" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E1426" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1426" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1427" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E1427" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1427" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1428" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E1428" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1428" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1429" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E1429" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F1429" s="2" t="n">
+        <v>44439</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1429"/>
+  <dimension ref="A1:F1450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31885,6 +31885,468 @@
         <v>44439</v>
       </c>
     </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1430" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E1430" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1430" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1431" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E1431" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1431" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1432" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D1432" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E1432" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1432" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1433" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1433" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E1433" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1433" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1434" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1434" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E1434" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1434" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1435" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D1435" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E1435" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1435" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1436" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D1436" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E1436" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1436" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1437" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D1437" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E1437" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1437" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1438" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1438" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E1438" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1438" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1439" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D1439" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E1439" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1439" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1440" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D1440" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E1440" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1440" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1441" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D1441" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E1441" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1441" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1442" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C1442" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1442" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E1442" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1442" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1443" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1443" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D1443" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E1443" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1443" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1444" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D1444" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E1444" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1444" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1445" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1445" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E1445" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1445" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1446" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1446" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E1446" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1446" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1447" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D1447" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E1447" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1447" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1448" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D1448" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E1448" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1448" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1449" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D1449" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E1449" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1449" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1450" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1450" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E1450" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F1450" s="2" t="n">
+        <v>44446</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1450"/>
+  <dimension ref="A1:F1471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32347,6 +32347,468 @@
         <v>44446</v>
       </c>
     </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1451" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1451" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E1451" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1451" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1452" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D1452" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E1452" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1452" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1453" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D1453" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E1453" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1453" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1454" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D1454" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E1454" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1454" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1455" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D1455" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E1455" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1455" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1456" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D1456" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E1456" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1456" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1457" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D1457" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E1457" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1457" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1458" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1458" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E1458" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1458" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1459" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1459" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E1459" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1459" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1460" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D1460" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E1460" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1460" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1461" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1461" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E1461" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1461" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1462" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D1462" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E1462" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1462" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1463" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C1463" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1463" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E1463" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1463" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1464" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C1464" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1464" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E1464" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1464" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1465" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D1465" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E1465" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1465" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1466" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D1466" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E1466" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1466" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1467" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D1467" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E1467" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1467" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1468" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D1468" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="E1468" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1468" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1469" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D1469" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E1469" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1469" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1470" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D1470" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E1470" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1470" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1471" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E1471" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F1471" s="2" t="n">
+        <v>44453</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1471"/>
+  <dimension ref="A1:F1492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32809,6 +32809,468 @@
         <v>44453</v>
       </c>
     </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1472" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E1472" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1472" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1473" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E1473" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1473" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1474" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E1474" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1474" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1475" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E1475" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1475" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1476" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E1476" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1476" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1477" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E1477" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1477" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1478" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E1478" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1478" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1479" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E1479" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1479" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1480" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E1480" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1480" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1481" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E1481" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1481" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1482" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E1482" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1482" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1483" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="E1483" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1483" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1484" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1484" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1484" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1485" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1485" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1485" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1486" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E1486" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1486" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1487" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E1487" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1487" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1488" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E1488" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1488" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1489" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E1489" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1489" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1490" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E1490" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1490" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1491" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E1491" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1491" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1492" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E1492" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F1492" s="2" t="n">
+        <v>44460</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1492"/>
+  <dimension ref="A1:F1513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33271,6 +33271,468 @@
         <v>44460</v>
       </c>
     </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1493" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E1493" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1493" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1494" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E1494" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1494" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1495" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E1495" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1495" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1496" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E1496" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1496" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1497" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E1497" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1497" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1498" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E1498" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1498" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1499" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E1499" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1499" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1500" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E1500" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1500" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1501" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E1501" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1501" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1502" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E1502" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1502" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1503" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E1503" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1503" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1504" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E1504" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1504" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1505" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E1505" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1505" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1506" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E1506" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1506" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1507" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E1507" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1507" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1508" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E1508" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1508" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1509" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E1509" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1509" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1510" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E1510" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1510" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1511" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E1511" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1511" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1512" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E1512" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1512" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1513" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E1513" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="F1513" s="2" t="n">
+        <v>44467</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1513"/>
+  <dimension ref="A1:F1534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33733,6 +33733,468 @@
         <v>44467</v>
       </c>
     </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1514" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E1514" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1514" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1515" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E1515" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1515" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1516" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E1516" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1516" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1517" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E1517" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1517" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1518" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E1518" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1518" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1519" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E1519" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1519" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1520" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E1520" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1520" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1521" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E1521" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1521" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1522" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E1522" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1522" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1523" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1523" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1523" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1524" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E1524" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1524" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1525" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E1525" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1525" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1526" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E1526" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1526" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1527" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E1527" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1527" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1528" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E1528" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1528" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1529" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E1529" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1529" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1530" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E1530" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1530" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1531" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E1531" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1531" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1532" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E1532" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1532" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1533" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="E1533" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1533" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1534" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E1534" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="F1534" s="2" t="n">
+        <v>44474</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1534"/>
+  <dimension ref="A1:F1555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34195,6 +34195,468 @@
         <v>44474</v>
       </c>
     </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1535" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E1535" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1535" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1536" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E1536" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1536" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1537" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E1537" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1537" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1538" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E1538" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1538" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1539" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E1539" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1539" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1540" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E1540" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1540" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1541" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E1541" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1541" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1542" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1542" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1542" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1543" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E1543" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1543" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1544" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E1544" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1544" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1545" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E1545" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1545" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1546" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E1546" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1546" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1547" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E1547" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1547" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1548" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E1548" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1548" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1549" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E1549" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1549" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1550" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E1550" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1550" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1551" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E1551" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1551" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1552" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E1552" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1552" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1553" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E1553" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1553" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1554" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E1554" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1554" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1555" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E1555" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="F1555" s="2" t="n">
+        <v>44481</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1555"/>
+  <dimension ref="A1:F1576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34657,6 +34657,468 @@
         <v>44481</v>
       </c>
     </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1556" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E1556" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1556" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1557" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="E1557" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1557" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1558" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E1558" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1558" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1559" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E1559" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1559" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1560" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E1560" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1560" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1561" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E1561" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1561" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1562" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E1562" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1562" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1563" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E1563" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1563" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1564" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E1564" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1564" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1565" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E1565" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1565" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1566" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E1566" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1566" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1567" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E1567" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1567" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1568" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E1568" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1568" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1569" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E1569" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1569" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1570" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E1570" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1570" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1571" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E1571" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1571" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1572" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E1572" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1572" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1573" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E1573" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1573" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1574" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E1574" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1574" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1575" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E1575" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1575" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1576" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E1576" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F1576" s="2" t="n">
+        <v>44488</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1576"/>
+  <dimension ref="A1:F1597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35119,6 +35119,468 @@
         <v>44488</v>
       </c>
     </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1577" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E1577" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1577" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1578" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E1578" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1578" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1579" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E1579" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1579" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1580" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E1580" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1580" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1581" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E1581" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1581" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1582" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E1582" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1582" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1583" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E1583" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1583" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1584" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E1584" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1584" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1585" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E1585" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1585" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1586" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E1586" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1586" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1587" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E1587" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1587" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1588" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E1588" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1588" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1589" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E1589" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1589" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1590" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E1590" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1590" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1591" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E1591" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1591" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1592" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E1592" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1592" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1593" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E1593" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1593" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1594" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E1594" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1594" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1595" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E1595" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1595" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1596" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E1596" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1596" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1597" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E1597" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F1597" s="2" t="n">
+        <v>44495</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1597"/>
+  <dimension ref="A1:F1618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35581,6 +35581,468 @@
         <v>44495</v>
       </c>
     </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1598" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E1598" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1598" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1599" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="E1599" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1599" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1600" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="E1600" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1600" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1601" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="E1601" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1601" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1602" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E1602" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1602" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1603" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E1603" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1603" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1604" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E1604" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1604" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1605" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E1605" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1605" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1606" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E1606" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1606" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1607" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E1607" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1607" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1608" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E1608" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1608" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1609" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E1609" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1609" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1610" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E1610" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1610" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1611" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E1611" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1611" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1612" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1612" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E1612" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1612" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1613" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E1613" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1613" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1614" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E1614" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1614" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1615" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E1615" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1615" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1616" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E1616" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1616" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1617" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E1617" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1617" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1618" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E1618" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F1618" s="2" t="n">
+        <v>44502</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1618"/>
+  <dimension ref="A1:F1660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36043,6 +36043,930 @@
         <v>44502</v>
       </c>
     </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1619" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E1619" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1619" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1620" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="E1620" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1620" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1621" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E1621" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1621" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1622" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D1622" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E1622" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1622" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1623" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D1623" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E1623" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1623" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1624" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E1624" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1624" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1625" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E1625" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1625" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1626" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E1626" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1626" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1627" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E1627" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1627" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1628" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E1628" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1628" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1629" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E1629" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1629" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1630" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E1630" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1630" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1631" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E1631" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1631" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1632" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E1632" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1632" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1633" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E1633" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1633" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1634" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E1634" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1634" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1635" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E1635" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1635" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1636" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E1636" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1636" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1637" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E1637" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1637" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1638" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E1638" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1638" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1639" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E1639" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F1639" s="2" t="n">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1640" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D1640" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E1640" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1640" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1641" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E1641" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1641" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1642" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E1642" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1642" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1643" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E1643" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1643" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1644" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E1644" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1644" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1645" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E1645" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1645" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1646" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="E1646" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1646" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1647" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E1647" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1647" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1648" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E1648" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1648" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1649" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E1649" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1649" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1650" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E1650" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1650" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1651" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E1651" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1651" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1652" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E1652" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1652" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1653" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E1653" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1653" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1654" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E1654" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1654" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1655" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E1655" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1655" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1656" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E1656" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1656" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1657" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E1657" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1657" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1658" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E1658" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1658" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1659" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="E1659" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1659" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1660" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E1660" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F1660" s="2" t="n">
+        <v>44516</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1660"/>
+  <dimension ref="A1:F1681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36967,6 +36967,468 @@
         <v>44516</v>
       </c>
     </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1661" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E1661" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1661" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1662" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E1662" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1662" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1663" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E1663" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1663" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1664" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E1664" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1664" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1665" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E1665" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1665" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1666" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E1666" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1666" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1667" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E1667" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1667" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1668" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E1668" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1668" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1669" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E1669" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1669" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1670" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E1670" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1670" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1671" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E1671" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1671" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1672" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E1672" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1672" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1673" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E1673" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1673" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1674" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E1674" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1674" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1675" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E1675" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1675" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1676" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E1676" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1676" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1677" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E1677" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1677" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1678" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E1678" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1678" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1679" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E1679" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1679" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1680" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E1680" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1680" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1681" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E1681" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F1681" s="2" t="n">
+        <v>44523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1681"/>
+  <dimension ref="A1:F1702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37429,6 +37429,468 @@
         <v>44523</v>
       </c>
     </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1682" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E1682" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1682" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1683" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E1683" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1683" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1684" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E1684" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1684" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1685" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E1685" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1685" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1686" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E1686" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1686" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1687" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E1687" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1687" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1688" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E1688" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1688" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1689" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E1689" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1689" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1690" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E1690" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1690" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1691" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E1691" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1691" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1692" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E1692" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1692" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1693" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E1693" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1693" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1694" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E1694" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1694" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1695" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E1695" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1695" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1696" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E1696" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1696" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1697" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E1697" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1697" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1698" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E1698" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1698" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1699" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E1699" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1699" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1700" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E1700" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1700" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1701" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E1701" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1701" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1702" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E1702" s="2" t="n">
+        <v>44516</v>
+      </c>
+      <c r="F1702" s="2" t="n">
+        <v>44529</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1702"/>
+  <dimension ref="A1:F1723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37891,6 +37891,468 @@
         <v>44529</v>
       </c>
     </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1703" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E1703" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1703" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1704" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E1704" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1704" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1705" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E1705" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1705" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1706" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E1706" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1706" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1707" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E1707" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1707" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1708" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E1708" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1708" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1709" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E1709" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1709" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1710" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E1710" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1710" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1711" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E1711" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1711" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1712" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E1712" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1712" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1713" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E1713" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1713" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1714" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E1714" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1714" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1715" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E1715" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1715" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1716" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E1716" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1716" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1717" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E1717" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1717" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1718" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E1718" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1718" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1719" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E1719" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1719" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1720" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E1720" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1720" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1721" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E1721" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1721" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1722" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="E1722" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1722" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1723" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E1723" s="2" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F1723" s="2" t="n">
+        <v>44537</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1723"/>
+  <dimension ref="A1:F1744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38353,6 +38353,468 @@
         <v>44537</v>
       </c>
     </row>
+    <row r="1724">
+      <c r="A1724" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1724" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E1724" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1724" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1725" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="E1725" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1725" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1726" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E1726" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1726" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1727" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E1727" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1727" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1728" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E1728" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1728" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1729" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E1729" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1729" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1730" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E1730" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1730" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1731" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E1731" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1731" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1732" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E1732" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1732" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1733" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E1733" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1733" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1734" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E1734" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1734" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1735" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E1735" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1735" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1736" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E1736" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1736" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1737" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E1737" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1737" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1738" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E1738" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1738" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1739" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E1739" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1739" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1740" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E1740" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1740" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1741" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E1741" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1741" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1742" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E1742" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1742" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1743" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E1743" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1743" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1744" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E1744" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="F1744" s="2" t="n">
+        <v>44543</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1744"/>
+  <dimension ref="A1:F1786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38815,6 +38815,930 @@
         <v>44543</v>
       </c>
     </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1745" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E1745" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1745" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1746" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E1746" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1746" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1747" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E1747" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1747" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1748" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E1748" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1748" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1749" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E1749" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1749" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1750" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E1750" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1750" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1751" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E1751" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1751" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1752" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E1752" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1752" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1753" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E1753" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1753" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1754" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E1754" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1754" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1755" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E1755" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1755" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1756" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E1756" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1756" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1757" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E1757" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1757" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1758" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E1758" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1758" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1759" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E1759" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1759" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1760" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E1760" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1760" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1761" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E1761" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1761" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1762" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E1762" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1762" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1763" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E1763" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1763" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1764" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E1764" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1764" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1765" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E1765" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="F1765" s="2" t="n">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1766" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E1766" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1766" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1767" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="E1767" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1767" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1768" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E1768" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1768" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1769" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E1769" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1769" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1770" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E1770" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1770" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1771" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E1771" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1771" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1772" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E1772" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1772" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1773" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E1773" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1773" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1774" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E1774" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1774" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1775" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E1775" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1775" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1776" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E1776" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1776" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1777" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E1777" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1777" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1778" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="E1778" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1778" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1779" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="E1779" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1779" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1780" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E1780" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1780" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1781" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E1781" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1781" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1782" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E1782" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1782" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1783" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="E1783" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1783" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1784" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E1784" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1784" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1785" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E1785" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1785" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1786" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E1786" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F1786" s="2" t="n">
+        <v>44558</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1786"/>
+  <dimension ref="A1:F1807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39739,6 +39739,468 @@
         <v>44558</v>
       </c>
     </row>
+    <row r="1787">
+      <c r="A1787" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1787" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E1787" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1787" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1788" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="E1788" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1788" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1789" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E1789" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1789" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1790" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E1790" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1790" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1791" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E1791" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1791" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1792" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E1792" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1792" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1793" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="E1793" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1793" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1794" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E1794" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1794" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1795" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E1795" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1795" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1796" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E1796" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1796" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1797" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E1797" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1797" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1798" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E1798" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1798" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1799" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E1799" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1799" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1800" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E1800" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1800" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1801" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E1801" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1801" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1802" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E1802" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1802" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1803" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E1803" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1803" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1804" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="E1804" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1804" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1805" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E1805" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1805" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1806" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E1806" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1806" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1807" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E1807" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="F1807" s="2" t="n">
+        <v>44565</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1807"/>
+  <dimension ref="A1:F1828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40201,6 +40201,468 @@
         <v>44565</v>
       </c>
     </row>
+    <row r="1808">
+      <c r="A1808" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1808" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E1808" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1808" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1809" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E1809" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1809" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1810" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E1810" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1810" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1811" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E1811" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1811" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1812" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E1812" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1812" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1813" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E1813" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1813" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1814" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E1814" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1814" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1815" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E1815" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1815" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1816" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E1816" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1816" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1817" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E1817" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1817" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1818" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E1818" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1818" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1819" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E1819" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1819" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1820" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E1820" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1820" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1821" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E1821" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1821" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1822" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="E1822" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1822" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1823" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E1823" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1823" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1824" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E1824" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1824" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1825" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E1825" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1825" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1826" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E1826" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1826" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1827" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E1827" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1827" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1828" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E1828" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F1828" s="2" t="n">
+        <v>44572</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1828"/>
+  <dimension ref="A1:F1849"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40663,6 +40663,468 @@
         <v>44572</v>
       </c>
     </row>
+    <row r="1829">
+      <c r="A1829" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1829" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E1829" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1829" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1830" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E1830" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1830" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1831" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E1831" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1831" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1832" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E1832" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1832" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1833" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E1833" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1833" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1834" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E1834" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1834" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1835" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E1835" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1835" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1836" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E1836" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1836" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1837" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E1837" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1837" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1838" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E1838" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1838" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1839" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="E1839" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1839" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1840" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E1840" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1840" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1841" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E1841" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1841" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1842" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E1842" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1842" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1843" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1843" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E1843" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1843" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1844" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="C1844" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D1844" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E1844" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1844" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1845" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C1845" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D1845" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E1845" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1845" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1846" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="C1846" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D1846" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E1846" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1846" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1847" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C1847" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1847" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E1847" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1847" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1848" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C1848" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D1848" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E1848" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1848" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1849" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C1849" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D1849" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E1849" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="F1849" s="2" t="n">
+        <v>44579</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1849"/>
+  <dimension ref="A1:F1870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41125,6 +41125,468 @@
         <v>44579</v>
       </c>
     </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1850" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C1850" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D1850" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E1850" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1850" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1851" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="C1851" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D1851" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E1851" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1851" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1852" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C1852" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D1852" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E1852" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1852" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1853" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C1853" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D1853" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E1853" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1853" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1854" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C1854" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D1854" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E1854" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1854" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1855" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C1855" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D1855" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E1855" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1855" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1856" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C1856" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D1856" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E1856" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1856" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1857" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C1857" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1857" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E1857" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1857" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1858" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="C1858" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D1858" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E1858" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1858" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1859" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C1859" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D1859" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E1859" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1859" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1860" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="C1860" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D1860" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="E1860" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1860" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1861" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C1861" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D1861" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="E1861" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1861" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1862" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C1862" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D1862" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E1862" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1862" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1863" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C1863" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D1863" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="E1863" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1863" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1864" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C1864" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D1864" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E1864" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1864" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1865" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1865" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1865" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E1865" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1865" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1866" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C1866" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D1866" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E1866" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1866" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1867" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="C1867" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D1867" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E1867" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1867" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1868" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C1868" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D1868" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E1868" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1868" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1869" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1869" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D1869" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E1869" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1869" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1870" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1870" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D1870" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E1870" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F1870" s="2" t="n">
+        <v>44586</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1870"/>
+  <dimension ref="A1:F1891"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41587,6 +41587,468 @@
         <v>44586</v>
       </c>
     </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1871" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C1871" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D1871" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E1871" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1871" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1872" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1872" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1872" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E1872" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1872" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1873" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C1873" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="D1873" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E1873" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1873" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1874" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1874" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1874" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E1874" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1874" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1875" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1875" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D1875" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E1875" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1875" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1876" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C1876" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1876" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E1876" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1876" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1877" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C1877" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1877" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E1877" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1877" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1878" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1878" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D1878" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E1878" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1878" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1879" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C1879" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D1879" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E1879" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1879" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1880" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1880" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1880" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E1880" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1880" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1881" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="C1881" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D1881" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="E1881" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1881" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1882" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C1882" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D1882" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E1882" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1882" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1883" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1883" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D1883" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E1883" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1883" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1884" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C1884" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D1884" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E1884" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1884" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1885" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C1885" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D1885" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E1885" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1885" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1886" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C1886" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1886" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E1886" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1886" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1887" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C1887" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D1887" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E1887" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1887" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1888" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1888" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D1888" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E1888" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1888" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1889" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C1889" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1889" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E1889" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1889" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1890" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C1890" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D1890" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E1890" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1890" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1891" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C1891" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D1891" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E1891" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="F1891" s="2" t="n">
+        <v>44593</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1891"/>
+  <dimension ref="A1:F1912"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42049,6 +42049,468 @@
         <v>44593</v>
       </c>
     </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1892" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C1892" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D1892" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E1892" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1892" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1893" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1893" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1893" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E1893" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1893" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1894" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C1894" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1894" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E1894" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1894" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1895" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C1895" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1895" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E1895" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1895" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1896" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1896" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1896" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E1896" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1896" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1897" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C1897" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1897" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E1897" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1897" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1898" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C1898" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D1898" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E1898" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1898" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1899" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C1899" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D1899" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E1899" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1899" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1900" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C1900" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D1900" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1900" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1900" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1901" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C1901" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1901" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E1901" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1901" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1902" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1902" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D1902" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E1902" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1902" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1903" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1903" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D1903" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E1903" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1903" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1904" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C1904" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D1904" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E1904" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1904" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1905" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1905" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1905" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E1905" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1905" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1906" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1906" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1906" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E1906" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1906" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1907" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C1907" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1907" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E1907" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1907" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1908" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1908" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D1908" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E1908" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1908" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1909" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C1909" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1909" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E1909" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1909" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1910" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C1910" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D1910" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="E1910" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1910" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1911" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C1911" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D1911" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E1911" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1911" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1912" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1912" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D1912" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E1912" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="F1912" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1912"/>
+  <dimension ref="A1:F1933"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42511,6 +42511,468 @@
         <v>44600</v>
       </c>
     </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1913" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C1913" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D1913" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E1913" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1913" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1914" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C1914" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D1914" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E1914" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1914" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1915" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C1915" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1915" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E1915" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1915" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1916" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1916" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D1916" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E1916" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1916" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1917" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C1917" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1917" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E1917" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1917" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1918" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C1918" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1918" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E1918" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1918" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1919" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C1919" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D1919" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E1919" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1919" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1920" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C1920" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D1920" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E1920" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1920" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1921" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C1921" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D1921" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E1921" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1921" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1922" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C1922" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D1922" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E1922" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1922" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1923" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1923" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1923" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E1923" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1923" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1924" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C1924" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1924" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E1924" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1924" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1925" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C1925" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D1925" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E1925" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1925" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1926" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C1926" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D1926" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E1926" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1926" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1927" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C1927" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D1927" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E1927" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1927" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1928" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C1928" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D1928" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E1928" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1928" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1929" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C1929" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D1929" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E1929" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1929" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1930" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C1930" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D1930" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E1930" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1930" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1931" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C1931" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D1931" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E1931" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1931" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1932" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C1932" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D1932" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E1932" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1932" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1933" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C1933" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1933" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E1933" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="F1933" s="2" t="n">
+        <v>44607</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1933"/>
+  <dimension ref="A1:F1954"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42973,6 +42973,468 @@
         <v>44607</v>
       </c>
     </row>
+    <row r="1934">
+      <c r="A1934" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1934" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C1934" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D1934" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E1934" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1934" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1935" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C1935" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D1935" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E1935" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1935" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1936" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C1936" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D1936" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E1936" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1936" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1937" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C1937" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1937" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E1937" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1937" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1938" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C1938" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D1938" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E1938" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1938" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1939" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C1939" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D1939" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E1939" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1939" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1940" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C1940" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1940" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E1940" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1940" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1941" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C1941" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D1941" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E1941" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1941" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1942" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C1942" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D1942" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E1942" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1942" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1943" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C1943" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1943" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E1943" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1943" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1944" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C1944" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D1944" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E1944" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1944" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1945" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C1945" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1945" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E1945" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1945" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1946" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C1946" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D1946" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E1946" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1946" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1947" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1947" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D1947" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E1947" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1947" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1948" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C1948" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D1948" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E1948" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1948" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1949" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C1949" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D1949" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E1949" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1949" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1950" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C1950" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1950" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E1950" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1950" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1951" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C1951" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D1951" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E1951" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1951" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1952" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C1952" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1952" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E1952" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1952" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1953" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C1953" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D1953" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E1953" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1953" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1954" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1954" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D1954" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1954" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="F1954" s="2" t="n">
+        <v>44614</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1954"/>
+  <dimension ref="A1:F1975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43435,6 +43435,468 @@
         <v>44614</v>
       </c>
     </row>
+    <row r="1955">
+      <c r="A1955" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1955" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C1955" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D1955" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E1955" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1955" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1956" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1956" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1956" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E1956" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1956" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1957" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C1957" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D1957" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E1957" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1957" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1958" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="C1958" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D1958" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E1958" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1958" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1959" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1959" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D1959" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E1959" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1959" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1960" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C1960" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D1960" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E1960" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1960" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1961" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C1961" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D1961" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E1961" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1961" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1962" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C1962" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D1962" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E1962" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1962" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1963" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C1963" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D1963" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E1963" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1963" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1964" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1964" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D1964" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E1964" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1964" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1965" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C1965" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D1965" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E1965" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1965" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1966" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C1966" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1966" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1966" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1966" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1967" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C1967" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1967" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1967" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1967" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1968" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C1968" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D1968" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E1968" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1968" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1969" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1969" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D1969" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E1969" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1969" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1970" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C1970" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D1970" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E1970" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1970" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1971" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C1971" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D1971" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E1971" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1971" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1972" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C1972" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D1972" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E1972" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1972" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1973" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C1973" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D1973" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E1973" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1973" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1974" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1974" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D1974" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E1974" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1974" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1975" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C1975" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D1975" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E1975" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="F1975" s="2" t="n">
+        <v>44621</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1975"/>
+  <dimension ref="A1:F2017"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43897,6 +43897,930 @@
         <v>44621</v>
       </c>
     </row>
+    <row r="1976">
+      <c r="A1976" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1976" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C1976" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D1976" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E1976" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1976" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1977" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C1977" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D1977" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E1977" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1977" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1978" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C1978" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D1978" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E1978" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1978" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B1979" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C1979" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D1979" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E1979" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1979" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B1980" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C1980" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D1980" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E1980" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1980" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B1981" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1981" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1981" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E1981" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1981" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B1982" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C1982" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D1982" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E1982" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1982" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B1983" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C1983" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D1983" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E1983" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1983" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B1984" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C1984" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D1984" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E1984" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1984" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B1985" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C1985" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D1985" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E1985" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1985" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B1986" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1986" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D1986" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E1986" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1986" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B1987" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="C1987" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D1987" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E1987" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1987" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B1988" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1988" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1988" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E1988" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1988" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B1989" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C1989" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D1989" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E1989" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1989" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B1990" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C1990" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D1990" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E1990" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1990" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B1991" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C1991" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D1991" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E1991" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1991" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B1992" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C1992" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D1992" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E1992" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1992" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B1993" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C1993" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D1993" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E1993" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1993" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B1994" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="C1994" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D1994" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E1994" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1994" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B1995" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C1995" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D1995" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E1995" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1995" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B1996" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C1996" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D1996" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E1996" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="F1996" s="2" t="n">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B1997" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1997" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D1997" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E1997" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F1997" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B1998" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C1998" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D1998" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E1998" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F1998" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B1999" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1999" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D1999" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E1999" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F1999" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2000" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C2000" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D2000" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E2000" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F2000" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2001" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C2001" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D2001" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E2001" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F2001" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2002" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C2002" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D2002" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E2002" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F2002" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2003" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C2003" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D2003" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E2003" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F2003" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2004" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C2004" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D2004" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E2004" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F2004" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2005" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C2005" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D2005" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E2005" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F2005" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2006" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C2006" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D2006" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E2006" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F2006" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2007" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C2007" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D2007" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E2007" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F2007" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2008" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C2008" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D2008" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E2008" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F2008" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2009" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C2009" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D2009" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E2009" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F2009" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2010" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C2010" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D2010" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="E2010" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F2010" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2011" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C2011" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D2011" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E2011" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F2011" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2012" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C2012" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D2012" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E2012" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F2012" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2013" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C2013" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D2013" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E2013" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F2013" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2014" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2014" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D2014" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E2014" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F2014" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2015" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="C2015" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D2015" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E2015" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F2015" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2016" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C2016" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D2016" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E2016" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F2016" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2017" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C2017" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D2017" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E2017" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="F2017" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2017"/>
+  <dimension ref="A1:F2038"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44821,6 +44821,468 @@
         <v>44635</v>
       </c>
     </row>
+    <row r="2018">
+      <c r="A2018" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2018" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C2018" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D2018" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E2018" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2018" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2019" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="C2019" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D2019" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E2019" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2019" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2020" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C2020" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D2020" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E2020" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2020" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2021" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C2021" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D2021" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E2021" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2021" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2022" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="C2022" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="D2022" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E2022" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2022" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2023" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C2023" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D2023" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E2023" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2023" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2024" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="C2024" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D2024" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E2024" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2024" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2025" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C2025" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D2025" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E2025" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2025" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2026" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C2026" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D2026" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E2026" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2026" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2027" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C2027" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D2027" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E2027" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2027" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2028" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C2028" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D2028" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E2028" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2028" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2029" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C2029" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D2029" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E2029" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2029" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2030" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C2030" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D2030" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E2030" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2030" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2031" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C2031" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D2031" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E2031" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2031" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2032" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C2032" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D2032" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E2032" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2032" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2033" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C2033" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D2033" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E2033" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2033" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2034" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="C2034" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D2034" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E2034" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2034" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2035" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C2035" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D2035" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E2035" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2035" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2036" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C2036" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D2036" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="E2036" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2036" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2037" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C2037" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D2037" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E2037" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2037" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2038" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C2038" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D2038" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E2038" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F2038" s="2" t="n">
+        <v>44642</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2038"/>
+  <dimension ref="A1:F2059"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45283,6 +45283,468 @@
         <v>44642</v>
       </c>
     </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2039" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C2039" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D2039" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E2039" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2039" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2040" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C2040" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D2040" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E2040" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2040" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2041" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C2041" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D2041" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E2041" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2041" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2042" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C2042" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D2042" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E2042" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2042" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2043" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C2043" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D2043" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E2043" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2043" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2044" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C2044" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D2044" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E2044" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2044" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2045" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C2045" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D2045" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E2045" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2045" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2046" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C2046" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D2046" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E2046" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2046" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2047" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C2047" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D2047" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E2047" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2047" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2048" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C2048" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2048" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E2048" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2048" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2049" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C2049" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D2049" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E2049" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2049" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2050" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C2050" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D2050" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E2050" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2050" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2051" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C2051" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D2051" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E2051" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2051" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2052" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C2052" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D2052" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E2052" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2052" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2053" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C2053" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D2053" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E2053" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2053" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2054" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C2054" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D2054" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E2054" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2054" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2055" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C2055" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D2055" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E2055" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2055" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2056" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C2056" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D2056" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E2056" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2056" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2057" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="C2057" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D2057" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="E2057" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2057" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2058" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="C2058" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2058" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E2058" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2058" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2059" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="C2059" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D2059" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E2059" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F2059" s="2" t="n">
+        <v>44649</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2059"/>
+  <dimension ref="A1:F2080"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45745,6 +45745,468 @@
         <v>44649</v>
       </c>
     </row>
+    <row r="2060">
+      <c r="A2060" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2060" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C2060" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D2060" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E2060" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2060" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2061" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C2061" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D2061" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E2061" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2061" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2062" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C2062" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D2062" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E2062" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2062" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2063" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C2063" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D2063" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="E2063" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2063" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2064" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C2064" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D2064" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E2064" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2064" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2065" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C2065" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D2065" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E2065" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2065" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2066" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C2066" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2066" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E2066" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2066" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2067" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C2067" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D2067" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E2067" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2067" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2068" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C2068" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D2068" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E2068" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2068" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2069" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C2069" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D2069" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E2069" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2069" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2070" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C2070" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D2070" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E2070" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2070" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2071" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="C2071" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D2071" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E2071" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2071" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2072" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C2072" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D2072" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E2072" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2072" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2073" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C2073" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D2073" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E2073" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2073" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2074" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C2074" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D2074" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E2074" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2074" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2075" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C2075" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D2075" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E2075" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2075" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2076" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C2076" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D2076" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E2076" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2076" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2077" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C2077" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D2077" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E2077" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2077" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2078" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="C2078" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D2078" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E2078" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2078" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2079" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C2079" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D2079" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E2079" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2079" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2080" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C2080" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D2080" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E2080" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F2080" s="2" t="n">
+        <v>44656</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2080"/>
+  <dimension ref="A1:F2101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46207,6 +46207,468 @@
         <v>44656</v>
       </c>
     </row>
+    <row r="2081">
+      <c r="A2081" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2081" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C2081" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D2081" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E2081" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2081" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2082" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C2082" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D2082" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E2082" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2082" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2083" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C2083" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D2083" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E2083" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2083" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2084" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C2084" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D2084" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E2084" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2084" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2085" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C2085" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D2085" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E2085" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2085" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2086" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C2086" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D2086" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E2086" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2086" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2087" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C2087" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D2087" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E2087" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2087" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2088" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C2088" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D2088" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E2088" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2088" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2089" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="C2089" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D2089" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E2089" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2089" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2090" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C2090" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D2090" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E2090" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2090" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2091" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C2091" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D2091" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E2091" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2091" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2092" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="C2092" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D2092" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E2092" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2092" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2093" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C2093" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D2093" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E2093" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2093" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2094" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C2094" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D2094" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E2094" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2094" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2095" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C2095" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D2095" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E2095" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2095" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2096" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C2096" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D2096" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E2096" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2096" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2097" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C2097" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D2097" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E2097" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2097" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2098" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C2098" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D2098" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E2098" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2098" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2099" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="C2099" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D2099" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E2099" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2099" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2100" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="C2100" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D2100" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="E2100" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2100" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2101" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C2101" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D2101" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E2101" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="F2101" s="2" t="n">
+        <v>44663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2101"/>
+  <dimension ref="A1:F2122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46669,6 +46669,468 @@
         <v>44663</v>
       </c>
     </row>
+    <row r="2102">
+      <c r="A2102" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2102" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D2102" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E2102" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2102" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2103" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C2103" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D2103" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E2103" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2103" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2104" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C2104" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D2104" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E2104" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2104" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2105" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C2105" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2105" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E2105" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2105" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2106" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C2106" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D2106" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E2106" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2106" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2107" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C2107" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D2107" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E2107" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2107" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2108" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C2108" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D2108" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E2108" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2108" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2109" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C2109" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D2109" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E2109" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2109" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2110" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C2110" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D2110" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E2110" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2110" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2111" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C2111" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D2111" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2111" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2111" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2112" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C2112" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D2112" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E2112" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2112" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2113" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C2113" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D2113" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E2113" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2113" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2114" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C2114" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D2114" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E2114" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2114" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2115" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C2115" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D2115" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E2115" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2115" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2116" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C2116" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D2116" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E2116" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2116" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2117" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C2117" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D2117" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E2117" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2117" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2118" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C2118" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D2118" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E2118" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2118" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2119" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C2119" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D2119" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E2119" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2119" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2120" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C2120" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D2120" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E2120" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2120" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2121" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C2121" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D2121" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E2121" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2121" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2122" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C2122" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D2122" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E2122" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F2122" s="2" t="n">
+        <v>44670</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2122"/>
+  <dimension ref="A1:F2143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47131,6 +47131,468 @@
         <v>44670</v>
       </c>
     </row>
+    <row r="2123">
+      <c r="A2123" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2123" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C2123" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D2123" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E2123" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2123" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2124" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C2124" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D2124" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E2124" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2124" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2125" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C2125" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2125" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E2125" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2125" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2126" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C2126" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2126" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E2126" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2126" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2127" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C2127" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D2127" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E2127" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2127" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2128" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C2128" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D2128" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E2128" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2128" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2129" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C2129" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D2129" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E2129" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2129" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2130" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C2130" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D2130" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E2130" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2130" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2131" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C2131" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D2131" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E2131" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2131" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2132" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C2132" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D2132" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E2132" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2132" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2133" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C2133" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D2133" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E2133" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2133" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C2134" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D2134" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E2134" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2134" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2135" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C2135" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D2135" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E2135" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2135" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2136" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C2136" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D2136" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E2136" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2136" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2137" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C2137" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D2137" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E2137" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2137" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2138" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C2138" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D2138" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E2138" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2138" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2139" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C2139" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D2139" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E2139" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2139" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2140" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C2140" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D2140" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E2140" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2140" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2141" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C2141" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D2141" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E2141" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2141" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2142" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C2142" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D2142" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E2142" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2142" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2143" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C2143" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D2143" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E2143" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="F2143" s="2" t="n">
+        <v>44677</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2143"/>
+  <dimension ref="A1:F2164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47593,6 +47593,468 @@
         <v>44677</v>
       </c>
     </row>
+    <row r="2144">
+      <c r="A2144" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2144" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E2144" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2144" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2145" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E2145" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2145" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2146" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E2146" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2146" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2147" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E2147" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2147" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2148" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E2148" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2148" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2149" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E2149" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2149" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2150" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E2150" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2150" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2151" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E2151" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2151" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2152" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E2152" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2152" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2153" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E2153" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2153" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2154" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E2154" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2154" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2155" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E2155" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2155" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2156" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E2156" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2156" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2157" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E2157" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2157" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2158" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E2158" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2158" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2159" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E2159" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2159" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2160" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E2160" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2160" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2161" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E2161" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2161" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2162" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E2162" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2162" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2163" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E2163" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2163" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2164" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E2164" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F2164" s="2" t="n">
+        <v>44684</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2164"/>
+  <dimension ref="A1:F2185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48055,6 +48055,468 @@
         <v>44684</v>
       </c>
     </row>
+    <row r="2165">
+      <c r="A2165" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2165" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E2165" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2165" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2166" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E2166" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2166" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2167" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E2167" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2167" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2168" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E2168" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2168" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2169" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E2169" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2169" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2170" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E2170" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2170" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2171" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2171" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2171" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2172" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E2172" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2172" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2173" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E2173" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2173" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2174" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E2174" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2174" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2175" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E2175" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2175" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E2176" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2176" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2177" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E2177" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2177" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2178" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C2178" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E2178" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2178" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2179" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E2179" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2179" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2180" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E2180" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2180" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2181" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E2181" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2181" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2182" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C2182" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E2182" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2182" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2183" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E2183" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2183" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2184" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E2184" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2184" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2185" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C2185" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E2185" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="F2185" s="2" t="n">
+        <v>44691</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2185"/>
+  <dimension ref="A1:F2227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48517,6 +48517,930 @@
         <v>44691</v>
       </c>
     </row>
+    <row r="2186">
+      <c r="A2186" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2186" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E2186" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2186" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2187" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C2187" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E2187" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2187" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2188" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C2188" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E2188" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2188" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2189" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C2189" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D2189" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E2189" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2189" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2190" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C2190" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2190" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E2190" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2190" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2191" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C2191" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2191" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E2191" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2191" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2192" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C2192" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D2192" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E2192" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2192" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2193" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C2193" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D2193" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E2193" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2193" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2194" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C2194" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D2194" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E2194" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2194" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2195" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C2195" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D2195" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E2195" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2195" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2196" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C2196" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D2196" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E2196" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2196" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2197" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C2197" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D2197" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E2197" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2197" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2198" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C2198" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D2198" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E2198" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2198" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2199" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C2199" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D2199" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E2199" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2199" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2200" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C2200" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D2200" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E2200" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2200" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2201" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C2201" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D2201" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E2201" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2201" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2202" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C2202" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D2202" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E2202" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2202" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2203" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C2203" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2203" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E2203" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2203" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2204" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C2204" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D2204" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E2204" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2204" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2205" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C2205" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D2205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E2205" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2205" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2206" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C2206" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D2206" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E2206" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="F2206" s="2" t="n">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2207" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C2207" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D2207" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E2207" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2207" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2208" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C2208" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D2208" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E2208" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2208" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2209" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C2209" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D2209" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E2209" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2209" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2210" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C2210" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D2210" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E2210" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2210" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2211" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C2211" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D2211" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E2211" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2211" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2212" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C2212" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D2212" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E2212" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2212" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2213" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C2213" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D2213" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E2213" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2213" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2214" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C2214" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D2214" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E2214" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2214" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2215" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C2215" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D2215" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E2215" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2215" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2216" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C2216" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D2216" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E2216" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2216" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2217" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C2217" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D2217" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2217" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2217" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2218" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C2218" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D2218" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E2218" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2218" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2219" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C2219" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D2219" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E2219" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2219" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2220" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C2220" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D2220" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E2220" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2220" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2221" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C2221" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D2221" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E2221" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2221" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2222" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C2222" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D2222" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E2222" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2222" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2223" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C2223" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D2223" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E2223" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2223" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2224" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C2224" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D2224" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E2224" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2224" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2225" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C2225" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D2225" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2225" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2225" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2226" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C2226" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D2226" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E2226" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2226" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2227" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C2227" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D2227" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E2227" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="F2227" s="2" t="n">
+        <v>44704</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2227"/>
+  <dimension ref="A1:F2248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49441,6 +49441,468 @@
         <v>44704</v>
       </c>
     </row>
+    <row r="2228">
+      <c r="A2228" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2228" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C2228" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D2228" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E2228" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2228" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2229" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C2229" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D2229" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="E2229" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2229" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2230" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C2230" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D2230" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E2230" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2230" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2231" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C2231" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D2231" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E2231" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2231" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2232" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C2232" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D2232" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E2232" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2232" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2233" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C2233" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D2233" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E2233" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2233" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2234" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C2234" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2234" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E2234" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2234" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2235" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C2235" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D2235" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E2235" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2235" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2236" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C2236" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D2236" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E2236" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2236" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2237" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C2237" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D2237" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E2237" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2237" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2238" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C2238" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D2238" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E2238" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2238" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2239" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C2239" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D2239" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E2239" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2239" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2240" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C2240" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D2240" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E2240" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2240" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2241" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C2241" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D2241" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E2241" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2241" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2242" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C2242" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D2242" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E2242" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2242" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2243" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C2243" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D2243" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E2243" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2243" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2244" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C2244" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D2244" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E2244" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2244" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2245" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C2245" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D2245" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E2245" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2245" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2246" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C2246" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D2246" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E2246" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2246" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2247" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C2247" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D2247" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E2247" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2247" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2248" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C2248" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D2248" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E2248" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="F2248" s="2" t="n">
+        <v>44712</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2248"/>
+  <dimension ref="A1:F2269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49903,6 +49903,468 @@
         <v>44712</v>
       </c>
     </row>
+    <row r="2249">
+      <c r="A2249" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2249" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C2249" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D2249" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E2249" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2249" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2250" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C2250" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D2250" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E2250" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2250" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2251" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C2251" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D2251" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E2251" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2251" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2252" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C2252" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D2252" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E2252" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2252" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2253" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C2253" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D2253" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E2253" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2253" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2254" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C2254" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D2254" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E2254" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2254" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2255" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C2255" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D2255" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E2255" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2255" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2256" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C2256" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D2256" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E2256" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2256" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2257" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C2257" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D2257" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E2257" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2257" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2258" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C2258" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D2258" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E2258" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2258" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2259" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C2259" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D2259" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E2259" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2259" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2260" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C2260" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D2260" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E2260" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2260" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2261" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C2261" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D2261" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E2261" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2261" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2262" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C2262" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2262" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E2262" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2262" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2263" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C2263" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D2263" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E2263" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2263" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2264" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C2264" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D2264" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E2264" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2264" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2265" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C2265" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2265" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E2265" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2265" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2266" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C2266" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D2266" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E2266" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2266" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2267" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C2267" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D2267" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E2267" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2267" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2268" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C2268" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D2268" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E2268" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2268" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2269" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C2269" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D2269" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E2269" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="F2269" s="2" t="n">
+        <v>44719</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2269"/>
+  <dimension ref="A1:F2290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50365,6 +50365,468 @@
         <v>44719</v>
       </c>
     </row>
+    <row r="2270">
+      <c r="A2270" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2270" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C2270" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D2270" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E2270" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2270" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2271" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C2271" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D2271" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E2271" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2271" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2272" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C2272" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D2272" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E2272" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2272" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2273" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C2273" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D2273" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E2273" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2273" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2274" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C2274" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D2274" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E2274" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2274" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2275" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C2275" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D2275" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E2275" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2275" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2276" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C2276" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D2276" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E2276" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2276" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2277" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C2277" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D2277" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E2277" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2277" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2278" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C2278" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D2278" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E2278" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2278" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2279" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C2279" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D2279" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="E2279" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2279" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2280" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C2280" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D2280" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E2280" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2280" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2281" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C2281" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D2281" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E2281" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2281" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2282" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C2282" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D2282" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E2282" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2282" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2283" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C2283" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D2283" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E2283" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2283" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2284" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2284" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D2284" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E2284" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2284" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2285" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C2285" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D2285" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E2285" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2285" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2286" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C2286" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D2286" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E2286" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2286" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2287" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C2287" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D2287" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E2287" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2287" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2288" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C2288" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D2288" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="E2288" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2288" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2289" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C2289" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D2289" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E2289" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2289" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2290" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C2290" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D2290" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E2290" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2290" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2290"/>
+  <dimension ref="A1:F2311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50827,6 +50827,468 @@
         <v>44726</v>
       </c>
     </row>
+    <row r="2291">
+      <c r="A2291" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2291" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C2291" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D2291" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2291" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2291" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2292" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="C2292" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D2292" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="E2292" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2292" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2293" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C2293" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D2293" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E2293" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2293" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2294" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C2294" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D2294" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E2294" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2294" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2295" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C2295" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D2295" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E2295" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2295" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2296" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C2296" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D2296" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E2296" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2296" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2297" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C2297" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D2297" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E2297" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2297" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2298" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C2298" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D2298" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E2298" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2298" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2299" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C2299" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D2299" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E2299" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2299" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2300" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="C2300" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D2300" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E2300" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2300" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2301" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C2301" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D2301" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="E2301" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2301" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2302" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C2302" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2302" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E2302" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2302" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2303" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C2303" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D2303" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E2303" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2303" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2304" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C2304" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D2304" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E2304" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2304" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2305" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C2305" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D2305" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E2305" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2305" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2306" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="C2306" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D2306" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E2306" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2306" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2307" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C2307" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D2307" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E2307" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2307" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2308" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C2308" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D2308" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E2308" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2308" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2309" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="C2309" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D2309" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E2309" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2309" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2310" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C2310" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D2310" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E2310" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2310" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2311" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C2311" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D2311" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E2311" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="F2311" s="2" t="n">
+        <v>44726</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2311"/>
+  <dimension ref="A1:F2353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50843,10 +50843,10 @@
         <v>1.5</v>
       </c>
       <c r="E2291" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2291" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="2292">
@@ -50865,10 +50865,10 @@
         <v>2.72</v>
       </c>
       <c r="E2292" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2292" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="2293">
@@ -50887,10 +50887,10 @@
         <v>1.32</v>
       </c>
       <c r="E2293" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2293" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="2294">
@@ -50909,10 +50909,10 @@
         <v>1.63</v>
       </c>
       <c r="E2294" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2294" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="2295">
@@ -50931,10 +50931,10 @@
         <v>1.53</v>
       </c>
       <c r="E2295" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2295" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="2296">
@@ -50953,10 +50953,10 @@
         <v>1.73</v>
       </c>
       <c r="E2296" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2296" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="2297">
@@ -50975,10 +50975,10 @@
         <v>1.38</v>
       </c>
       <c r="E2297" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2297" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="2298">
@@ -50997,10 +50997,10 @@
         <v>1.76</v>
       </c>
       <c r="E2298" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2298" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="2299">
@@ -51019,10 +51019,10 @@
         <v>1.62</v>
       </c>
       <c r="E2299" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2299" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="2300">
@@ -51041,10 +51041,10 @@
         <v>2.18</v>
       </c>
       <c r="E2300" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2300" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="2301">
@@ -51063,10 +51063,10 @@
         <v>2.09</v>
       </c>
       <c r="E2301" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2301" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="2302">
@@ -51085,10 +51085,10 @@
         <v>1.51</v>
       </c>
       <c r="E2302" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2302" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="2303">
@@ -51107,10 +51107,10 @@
         <v>1.75</v>
       </c>
       <c r="E2303" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2303" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="2304">
@@ -51129,10 +51129,10 @@
         <v>1.77</v>
       </c>
       <c r="E2304" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2304" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="2305">
@@ -51151,10 +51151,10 @@
         <v>1.68</v>
       </c>
       <c r="E2305" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2305" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="2306">
@@ -51173,10 +51173,10 @@
         <v>1.78</v>
       </c>
       <c r="E2306" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2306" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="2307">
@@ -51195,10 +51195,10 @@
         <v>1.22</v>
       </c>
       <c r="E2307" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2307" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="2308">
@@ -51217,10 +51217,10 @@
         <v>1.47</v>
       </c>
       <c r="E2308" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2308" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="2309">
@@ -51239,10 +51239,10 @@
         <v>1.77</v>
       </c>
       <c r="E2309" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2309" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="2310">
@@ -51261,10 +51261,10 @@
         <v>1.56</v>
       </c>
       <c r="E2310" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2310" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="2311">
@@ -51283,10 +51283,934 @@
         <v>1.68</v>
       </c>
       <c r="E2311" s="2" t="n">
-        <v>44713</v>
+        <v>44719</v>
       </c>
       <c r="F2311" s="2" t="n">
-        <v>44726</v>
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2312" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="C2312" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D2312" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E2312" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2312" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2313" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="C2313" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D2313" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="E2313" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2313" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2314" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C2314" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D2314" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E2314" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2314" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2315" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="C2315" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D2315" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E2315" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2315" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2316" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C2316" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D2316" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="E2316" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2316" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2317" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C2317" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D2317" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E2317" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2317" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2318" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C2318" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D2318" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E2318" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2318" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2319" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C2319" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D2319" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="E2319" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2319" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2320" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C2320" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D2320" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E2320" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2320" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2321" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C2321" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D2321" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E2321" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2321" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2322" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C2322" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D2322" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2322" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2322" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2323" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C2323" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D2323" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E2323" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2323" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2324" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="C2324" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D2324" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E2324" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2324" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2325" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="C2325" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D2325" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E2325" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2325" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2326" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C2326" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D2326" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E2326" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2326" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2327" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="C2327" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D2327" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E2327" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2327" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2328" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C2328" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D2328" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E2328" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2328" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2329" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C2329" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D2329" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E2329" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2329" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2330" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="C2330" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="D2330" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E2330" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2330" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2331" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C2331" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D2331" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E2331" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2331" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2332" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="C2332" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D2332" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E2332" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="F2332" s="2" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2333" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C2333" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D2333" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E2333" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2333" s="2" t="n">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2334" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="C2334" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D2334" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E2334" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2334" s="2" t="n">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2335" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="C2335" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D2335" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E2335" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2335" s="2" t="n">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2336" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C2336" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D2336" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E2336" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2336" s="2" t="n">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2337" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C2337" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D2337" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E2337" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2337" s="2" t="n">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2338" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C2338" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D2338" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2338" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2338" s="2" t="n">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2339" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C2339" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D2339" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E2339" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2339" s="2" t="n">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2340" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C2340" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D2340" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E2340" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2340" s="2" t="n">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2341" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C2341" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D2341" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E2341" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2341" s="2" t="n">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2342" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C2342" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D2342" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E2342" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2342" s="2" t="n">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2343" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C2343" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D2343" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="E2343" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2343" s="2" t="n">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2344" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C2344" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D2344" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E2344" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2344" s="2" t="n">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2345" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C2345" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D2345" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E2345" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2345" s="2" t="n">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2346" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C2346" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D2346" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E2346" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2346" s="2" t="n">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2347" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="C2347" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D2347" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E2347" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2347" s="2" t="n">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2348" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C2348" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D2348" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E2348" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2348" s="2" t="n">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2349" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C2349" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D2349" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E2349" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2349" s="2" t="n">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2350" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C2350" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D2350" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E2350" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2350" s="2" t="n">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2351" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="C2351" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D2351" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E2351" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2351" s="2" t="n">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2352" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C2352" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D2352" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E2352" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2352" s="2" t="n">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2353" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C2353" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D2353" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E2353" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="F2353" s="2" t="n">
+        <v>44747</v>
       </c>
     </row>
   </sheetData>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2353"/>
+  <dimension ref="A1:F2395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52213,6 +52213,930 @@
         <v>44747</v>
       </c>
     </row>
+    <row r="2354">
+      <c r="A2354" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2354" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="C2354" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D2354" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E2354" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2354" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2355" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="C2355" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D2355" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E2355" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2355" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2356" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="C2356" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D2356" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E2356" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2356" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2357" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C2357" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D2357" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E2357" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2357" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2358" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="C2358" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D2358" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E2358" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2358" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2359" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C2359" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D2359" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E2359" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2359" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2360" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C2360" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D2360" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E2360" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2360" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2361" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C2361" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D2361" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E2361" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2361" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2362" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C2362" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D2362" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E2362" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2362" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2363" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C2363" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D2363" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E2363" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2363" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2364" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C2364" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D2364" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E2364" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2364" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2365" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C2365" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D2365" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E2365" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2365" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2366" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C2366" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D2366" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E2366" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2366" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2367" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C2367" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D2367" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E2367" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2367" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2368" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="C2368" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D2368" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E2368" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2368" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2369" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C2369" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D2369" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E2369" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2369" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="A2370" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2370" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C2370" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D2370" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E2370" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2370" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2371" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C2371" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D2371" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E2371" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2371" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2372" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C2372" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D2372" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E2372" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2372" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2373" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C2373" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D2373" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E2373" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2373" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2374" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C2374" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D2374" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E2374" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="F2374" s="2" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2375" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="C2375" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D2375" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E2375" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2375" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2376" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C2376" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D2376" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E2376" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2376" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2377" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C2377" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D2377" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E2377" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2377" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2378" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C2378" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D2378" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E2378" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2378" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2379" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C2379" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D2379" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E2379" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2379" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2380" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C2380" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D2380" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E2380" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2380" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2381" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C2381" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D2381" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E2381" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2381" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2382" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C2382" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D2382" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E2382" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2382" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2383" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C2383" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D2383" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E2383" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2383" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2384" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="C2384" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D2384" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E2384" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2384" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2385" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C2385" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D2385" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E2385" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2385" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2386" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C2386" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D2386" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E2386" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2386" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2387" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C2387" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D2387" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E2387" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2387" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2388" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C2388" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D2388" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E2388" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2388" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2389" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C2389" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D2389" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E2389" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2389" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2390" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C2390" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D2390" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E2390" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2390" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2391" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C2391" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D2391" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E2391" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2391" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2392" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C2392" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D2392" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E2392" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2392" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2393" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C2393" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D2393" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E2393" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2393" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2394" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="C2394" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D2394" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E2394" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2394" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2395" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C2395" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D2395" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E2395" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="F2395" s="2" t="n">
+        <v>44761</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2395"/>
+  <dimension ref="A1:F2479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53137,6 +53137,1854 @@
         <v>44761</v>
       </c>
     </row>
+    <row r="2396">
+      <c r="A2396" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2396" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C2396" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D2396" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E2396" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2396" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2397" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C2397" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D2397" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E2397" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2397" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2398" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C2398" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2398" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E2398" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2398" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2399" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C2399" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D2399" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E2399" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2399" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2400" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C2400" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2400" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E2400" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2400" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2401" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C2401" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D2401" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E2401" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2401" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2402" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C2402" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D2402" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E2402" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2402" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2403" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C2403" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D2403" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E2403" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2403" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2404" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C2404" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D2404" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E2404" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2404" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2405" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C2405" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D2405" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E2405" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2405" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2406" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C2406" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D2406" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="E2406" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2406" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2407" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C2407" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2407" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E2407" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2407" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2408" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C2408" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D2408" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E2408" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2408" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2409" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C2409" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D2409" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E2409" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2409" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2410" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C2410" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D2410" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E2410" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2410" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2411" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C2411" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D2411" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E2411" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2411" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2412" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C2412" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D2412" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E2412" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2412" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2413" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C2413" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D2413" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E2413" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2413" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2414" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C2414" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D2414" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E2414" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2414" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2415" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C2415" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D2415" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E2415" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2415" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2416" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C2416" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D2416" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E2416" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="F2416" s="2" t="n">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2417" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C2417" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D2417" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E2417" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2417" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="A2418" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2418" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C2418" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D2418" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E2418" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2418" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2419" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C2419" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D2419" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E2419" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2419" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2420" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C2420" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D2420" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E2420" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2420" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2421" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C2421" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D2421" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E2421" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2421" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2422" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C2422" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D2422" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E2422" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2422" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="A2423" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2423" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C2423" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D2423" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E2423" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2423" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="A2424" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2424" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C2424" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D2424" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E2424" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2424" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2425">
+      <c r="A2425" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2425" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C2425" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D2425" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E2425" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2425" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="A2426" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2426" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C2426" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D2426" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E2426" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2426" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2427">
+      <c r="A2427" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2427" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C2427" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D2427" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E2427" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2427" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2428">
+      <c r="A2428" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2428" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C2428" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D2428" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E2428" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2428" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2429">
+      <c r="A2429" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2429" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C2429" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D2429" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E2429" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2429" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2430">
+      <c r="A2430" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2430" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C2430" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2430" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E2430" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2430" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2431">
+      <c r="A2431" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2431" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C2431" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D2431" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E2431" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2431" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2432">
+      <c r="A2432" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2432" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C2432" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D2432" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E2432" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2432" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="A2433" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2433" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C2433" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D2433" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E2433" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2433" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2434">
+      <c r="A2434" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2434" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C2434" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D2434" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E2434" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2434" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2435">
+      <c r="A2435" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2435" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C2435" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D2435" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E2435" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2435" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2436">
+      <c r="A2436" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2436" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C2436" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D2436" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E2436" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2436" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2437">
+      <c r="A2437" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2437" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C2437" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D2437" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E2437" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="F2437" s="2" t="n">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="2438">
+      <c r="A2438" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2438" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C2438" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D2438" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E2438" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2438" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2439">
+      <c r="A2439" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2439" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C2439" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D2439" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E2439" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2439" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2440" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C2440" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D2440" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E2440" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2440" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2441" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C2441" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D2441" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E2441" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2441" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2442" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C2442" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D2442" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E2442" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2442" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2443" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C2443" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D2443" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E2443" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2443" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2444" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C2444" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D2444" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E2444" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2444" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2445" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C2445" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D2445" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E2445" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2445" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2446">
+      <c r="A2446" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2446" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C2446" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D2446" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E2446" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2446" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2447" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C2447" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D2447" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E2447" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2447" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2448" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C2448" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D2448" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E2448" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2448" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2449" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C2449" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D2449" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E2449" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2449" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2450" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C2450" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D2450" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E2450" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2450" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2451" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C2451" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D2451" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E2451" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2451" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2452" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C2452" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D2452" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E2452" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2452" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2453" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C2453" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D2453" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E2453" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2453" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2454" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C2454" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D2454" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E2454" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2454" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2455" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C2455" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D2455" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E2455" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2455" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2456" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C2456" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D2456" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E2456" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2456" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2457">
+      <c r="A2457" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2457" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C2457" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D2457" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E2457" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2457" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2458" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C2458" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D2458" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E2458" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="F2458" s="2" t="n">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2459" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C2459" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D2459" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2459" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2459" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="2460">
+      <c r="A2460" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2460" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C2460" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D2460" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E2460" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2460" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="2461">
+      <c r="A2461" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2461" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C2461" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D2461" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E2461" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2461" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2462" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C2462" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D2462" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E2462" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2462" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2463" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C2463" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D2463" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E2463" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2463" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2464" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C2464" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D2464" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E2464" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2464" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2465" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C2465" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D2465" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E2465" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2465" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2466" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C2466" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D2466" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E2466" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2466" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2467" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C2467" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D2467" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E2467" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2467" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2468" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C2468" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D2468" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E2468" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2468" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2469" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C2469" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D2469" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E2469" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2469" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2470" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C2470" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D2470" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E2470" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2470" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2471" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C2471" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D2471" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E2471" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2471" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2472" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C2472" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D2472" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E2472" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2472" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2473" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C2473" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D2473" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E2473" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2473" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2474" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C2474" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D2474" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E2474" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2474" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2475" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C2475" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D2475" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E2475" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2475" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2476" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C2476" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D2476" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E2476" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2476" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2477" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C2477" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D2477" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E2477" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2477" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2478" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C2478" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D2478" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E2478" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2478" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2479" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C2479" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D2479" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E2479" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="F2479" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2479"/>
+  <dimension ref="A1:F2521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54985,6 +54985,930 @@
         <v>44788</v>
       </c>
     </row>
+    <row r="2480">
+      <c r="A2480" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2480" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C2480" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D2480" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E2480" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2480" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2481" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C2481" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D2481" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E2481" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2481" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2482" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C2482" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D2482" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E2482" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2482" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2483" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C2483" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D2483" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E2483" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2483" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2484" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C2484" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D2484" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E2484" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2484" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2485" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C2485" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D2485" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E2485" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2485" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2486" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C2486" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D2486" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E2486" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2486" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2487" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C2487" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D2487" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E2487" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2487" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2488" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C2488" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D2488" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E2488" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2488" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2489" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C2489" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D2489" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2489" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2489" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2490" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="C2490" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D2490" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E2490" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2490" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2491" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C2491" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D2491" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E2491" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2491" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2492" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C2492" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D2492" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E2492" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2492" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2493" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C2493" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D2493" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E2493" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2493" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2494" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C2494" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D2494" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E2494" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2494" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2495" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C2495" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D2495" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E2495" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2495" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2496" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C2496" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D2496" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E2496" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2496" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2497" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C2497" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D2497" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E2497" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2497" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2498" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C2498" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D2498" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E2498" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2498" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2499" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C2499" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D2499" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E2499" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2499" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2500" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C2500" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D2500" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E2500" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="F2500" s="2" t="n">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2501" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C2501" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D2501" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E2501" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2501" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2502" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="C2502" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D2502" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E2502" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2502" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2503" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C2503" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D2503" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E2503" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2503" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="A2504" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2504" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C2504" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2504" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E2504" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2504" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2505" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C2505" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D2505" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E2505" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2505" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="A2506" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2506" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C2506" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D2506" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E2506" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2506" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2507" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C2507" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D2507" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E2507" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2507" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2508" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C2508" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D2508" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E2508" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2508" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="2509">
+      <c r="A2509" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2509" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C2509" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D2509" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E2509" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2509" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="2510">
+      <c r="A2510" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2510" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C2510" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D2510" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E2510" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2510" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="A2511" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2511" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C2511" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D2511" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E2511" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2511" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2512" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C2512" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D2512" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E2512" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2512" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2513" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C2513" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D2513" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E2513" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2513" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2514" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C2514" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D2514" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E2514" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2514" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2515" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C2515" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D2515" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E2515" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2515" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2516" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C2516" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D2516" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E2516" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2516" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2517" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C2517" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D2517" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2517" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2517" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2518" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C2518" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D2518" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E2518" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2518" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2519" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C2519" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D2519" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E2519" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2519" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2520" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C2520" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D2520" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="E2520" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2520" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2521" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C2521" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2521" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E2521" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F2521" s="2" t="n">
+        <v>44803</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_avg14_from_ISS.xlsx
+++ b/data/sources/Rt_regions_avg14_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2521"/>
+  <dimension ref="A1:F2563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55909,6 +55909,930 @@
         <v>44803</v>
       </c>
     </row>
+    <row r="2522">
+      <c r="A2522" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2522" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C2522" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D2522" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E2522" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2522" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2523" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C2523" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D2523" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E2523" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2523" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2524" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C2524" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D2524" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E2524" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2524" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2525" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C2525" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D2525" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E2525" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2525" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2526" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C2526" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D2526" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E2526" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2526" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2527" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C2527" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D2527" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E2527" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2527" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2528" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C2528" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D2528" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E2528" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2528" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2529" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C2529" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D2529" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E2529" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2529" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2530" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C2530" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D2530" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E2530" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2530" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2531" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C2531" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D2531" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E2531" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2531" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2532" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C2532" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D2532" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E2532" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2532" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2533" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C2533" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D2533" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E2533" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2533" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2534" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C2534" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D2534" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E2534" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2534" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2535" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C2535" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D2535" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E2535" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2535" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2536" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C2536" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D2536" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E2536" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2536" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2537" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C2537" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D2537" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E2537" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2537" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2538" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C2538" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D2538" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E2538" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2538" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2539" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C2539" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D2539" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E2539" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2539" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2540" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C2540" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D2540" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E2540" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2540" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2541" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C2541" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D2541" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="E2541" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2541" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2542" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C2542" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D2542" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2542" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="F2542" s="2" t="n">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B2543" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C2543" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D2543" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E2543" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2543" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B2544" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C2544" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D2544" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E2544" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2544" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B2545" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C2545" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D2545" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E2545" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2545" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="2546">
+      <c r="A2546" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B2546" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C2546" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D2546" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E2546" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2546" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="2547">
+      <c r="A2547" t="inlineStr">
+        <is>
+          <t>Emilia R.</t>
+        </is>
+      </c>
+      <c r="B2547" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C2547" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D2547" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E2547" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2547" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="A2548" t="inlineStr">
+        <is>
+          <t>Friuli V.G.</t>
+        </is>
+      </c>
+      <c r="B2548" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C2548" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D2548" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E2548" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2548" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="2549">
+      <c r="A2549" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B2549" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C2549" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D2549" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E2549" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2549" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B2550" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C2550" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D2550" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E2550" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2550" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B2551" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C2551" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D2551" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E2551" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2551" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="2552">
+      <c r="A2552" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B2552" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C2552" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D2552" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E2552" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2552" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="2553">
+      <c r="A2553" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B2553" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C2553" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D2553" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="E2553" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2553" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="2554">
+      <c r="A2554" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B2554" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C2554" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D2554" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E2554" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2554" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="2555">
+      <c r="A2555" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B2555" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C2555" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D2555" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E2555" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2555" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B2556" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C2556" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D2556" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E2556" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2556" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B2557" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C2557" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D2557" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E2557" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2557" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B2558" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C2558" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D2558" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E2558" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2558" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="2559">
+      <c r="A2559" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B2559" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C2559" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D2559" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E2559" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2559" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="2560">
+      <c r="A2560" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B2560" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C2560" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2560" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E2560" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2560" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B2561" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C2561" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D2561" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E2561" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2561" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="2562">
+      <c r="A2562" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B2562" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C2562" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D2562" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="E2562" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2562" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="2563">
+      <c r="A2563" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B2563" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C2563" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D2563" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E2563" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F2563" s="2" t="n">
+        <v>44817</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
